--- a/laravel-quiz/public/excel/products.xlsx
+++ b/laravel-quiz/public/excel/products.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>User name</t>
   </si>
@@ -44,7 +44,7 @@
     <t>Druhotné vystavenie (krátkodobé, dlhodobé)</t>
   </si>
   <si>
-    <t>Second</t>
+    <t>Admin</t>
   </si>
   <si>
     <t>P91151080301</t>
@@ -59,49 +59,13 @@
     <t>OLYNTH</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
     <t>OLYNTH HA NASAL SPRAY .05 _ 1 10 ML</t>
   </si>
   <si>
-    <t>P36523160301</t>
-  </si>
-  <si>
-    <t>Nosní dekongestanty bez mořských vod</t>
-  </si>
-  <si>
-    <t>ORINOX DR.MAX NASAL SPRAY 5 MG 1 10 ML</t>
-  </si>
-  <si>
-    <t>ORINOX</t>
-  </si>
-  <si>
-    <t>N72194160301</t>
-  </si>
-  <si>
-    <t>Kategória zažívanie</t>
-  </si>
-  <si>
-    <t>IMODIUM CAPS 2 MG 20</t>
-  </si>
-  <si>
-    <t>IMODIUM</t>
-  </si>
-  <si>
-    <t>MUCONASAL PLUS NASAL SPRAY 12.50 MG 100 10 ML</t>
-  </si>
-  <si>
-    <t>MUCONASAL</t>
-  </si>
-  <si>
-    <t>P74199160302</t>
-  </si>
-  <si>
-    <t>IMODIUM CAPS 2 MG 8</t>
-  </si>
-  <si>
-    <t>ORINOX DR.MAX NASAL SPRAY 10 MG 1 10 ML</t>
+    <t>P19528160301</t>
+  </si>
+  <si>
+    <t>dlhodobé</t>
   </si>
 </sst>
 </file>
@@ -455,7 +419,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="I15" sqref="I15"/>
@@ -522,18 +486,16 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -542,13 +504,13 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -556,240 +518,35 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
+      <c r="I3"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
